--- a/Vertikal Tech TC Plant Inventory List.xlsx
+++ b/Vertikal Tech TC Plant Inventory List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zack\Desktop\Vertikal Tech TC Plant Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zack\Documents\GitHub\excel_editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C2BC4-5D8F-4BA2-9B1B-B3F7EE3397C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414C6E0-41AD-4586-AD28-332AB3120AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="N10" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="O10" s="11">
         <f>'Monster Profit'!B9</f>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="P10" s="18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="O17" s="11">
         <f>'GG #4'!B9</f>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="O21" s="11">
         <f>'Skunk Band'!B9</f>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="N25" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="O25" s="19" t="str">
         <f>Mimosa!B9</f>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="P25" s="18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="R3" s="18">
         <f t="shared" ref="R3:R8" ca="1" si="0">TODAY()-P3</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S3" s="18" t="str">
         <f t="shared" ref="S3:S8" ca="1" si="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="R4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S4" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="R5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S5" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S6" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="R7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S7" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="N11" s="18">
         <f ca="1">TODAY()-L11</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O11" s="18" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="N12" s="26">
         <f ca="1">TODAY()-L12</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O12" s="26" t="str">
         <f ca="1">IF(N12&lt;=21, "No", "Yes" )</f>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="N11" s="26">
         <f ca="1">TODAY()-L11</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O11" s="26" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="N10" s="26">
         <f ca="1">TODAY()-L10</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" s="26" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="N11" s="18">
         <f ca="1">TODAY()-L11</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O11" s="18" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="N10" s="26">
         <f ca="1">TODAY()-L10</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" s="26" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="J4" s="18">
         <f ca="1">TODAY()-H4</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K4" s="18" t="str">
         <f ca="1">IF(J4&lt;=21, "No", "Yes" )</f>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="N6" s="18">
         <f t="shared" ref="N6:N11" ca="1" si="0">TODAY()-L6</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O6" s="18" t="str">
         <f t="shared" ref="O6:O11" ca="1" si="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O7" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="N10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O10" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="N11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="N10" s="26">
         <f ca="1">TODAY()-L10</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O10" s="26" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="R8" s="18">
         <f ca="1">TODAY()-P8</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S8" s="18" t="str">
         <f ca="1">IF(R8&lt;=21, "No", "Yes" )</f>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="N11" s="18">
         <f ca="1">TODAY()-L11</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O11" s="18" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="N12" s="26">
         <f ca="1">TODAY()-L12</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O12" s="26" t="str">
         <f ca="1">IF(N12&lt;=21, "No", "Yes" )</f>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -10683,7 +10683,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="R6" s="26">
         <f ca="1">TODAY()-P6</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S6" s="26" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="N10" s="26">
         <f ca="1">TODAY()-L10</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O10" s="26" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&gt;21, "Yes", "No")</f>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&gt;21, "Yes", "No")</f>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&gt;21, "Yes", "No")</f>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&gt;21, "Yes", "No")</f>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&gt;21, "Yes", "No")</f>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&gt;21, "Yes", "No")</f>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&gt;21, "Yes", "No")</f>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&gt;21, "Yes", "No")</f>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="R8" s="18">
         <f ca="1">TODAY()-P8</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S8" s="18" t="str">
         <f ca="1">IF(R8&gt;21, "Yes", "No")</f>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&gt;21, "Yes", "No")</f>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="N12" s="18">
         <f ca="1">TODAY()-L12</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O12" s="18" t="str">
         <f ca="1">IF(N12&gt;21, "Yes", "No")</f>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="N14" s="18">
         <f ca="1">TODAY()-L14</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O14" s="18" t="str">
         <f ca="1">IF(N14&gt;21, "Yes", "No")</f>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="N15" s="18">
         <f ca="1">TODAY()-L15</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O15" s="18" t="str">
         <f ca="1">IF(N15&gt;21, "Yes", "No")</f>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="N16" s="18">
         <f ca="1">TODAY()-L16</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O16" s="18" t="str">
         <f ca="1">IF(N16&gt;21, "Yes", "No")</f>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -12634,7 +12634,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="N11" s="26">
         <f ca="1">TODAY()-L11</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O11" s="26" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="R3" s="18">
         <f t="shared" ref="R3:R8" ca="1" si="0">TODAY()-P3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S3" s="18" t="str">
         <f t="shared" ref="S3:S8" ca="1" si="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="R4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S4" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="R5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S5" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S6" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N12" ca="1" si="2">TODAY()-L7</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O7" s="18" t="str">
         <f t="shared" ref="O7:O12" ca="1" si="3">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="R7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S7" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13585,7 +13585,7 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="N10" s="26">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O10" s="26" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="N11" s="26">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O11" s="26" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="N12" s="26">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O12" s="26" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="R3" s="18">
         <f t="shared" ref="R3:R8" ca="1" si="0">TODAY()-P3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S3" s="18" t="str">
         <f t="shared" ref="S3:S8" ca="1" si="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="R4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S4" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="N5" s="18">
         <f t="shared" ref="N5:N10" ca="1" si="2">TODAY()-L5</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O5" s="18" t="str">
         <f t="shared" ref="O5:O10" ca="1" si="3">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="R5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S5" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="N6" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O6" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S6" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O7" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15339,7 +15339,7 @@
       </c>
       <c r="R7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S7" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="N10" s="26">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O10" s="26" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -16363,7 +16363,7 @@
       </c>
       <c r="N4" s="18">
         <f ca="1">TODAY()-L4</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O4" s="18" t="str">
         <f ca="1">IF(N4&lt;=21, "No", "Yes" )</f>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -16446,7 +16446,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -16580,7 +16580,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="R8" s="18">
         <f ca="1">TODAY()-P8</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S8" s="18" t="str">
         <f ca="1">IF(R8&lt;=21, "No", "Yes" )</f>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -16922,7 +16922,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -17426,7 +17426,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="11">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="N4" s="18">
         <f ca="1">TODAY()-L4</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O4" s="18" t="str">
         <f ca="1">IF(N4&lt;=21, "No", "Yes" )</f>
@@ -17507,7 +17507,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -17562,7 +17562,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="N3" s="18">
         <f t="shared" ref="N3:N8" ca="1" si="0">TODAY()-L3</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O3" s="18" t="str">
         <f t="shared" ref="O3:O8" ca="1" si="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -18008,7 +18008,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -18059,7 +18059,7 @@
       </c>
       <c r="N4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O4" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="N5" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O5" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18136,7 +18136,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="N6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O6" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18540,7 +18540,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&gt;21, "Yes", "No")</f>
@@ -18554,7 +18554,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&gt;21, "Yes", "No")</f>
@@ -18568,7 +18568,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&gt;21, "Yes", "No")</f>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="F5" s="18">
         <f ca="1">TODAY()-D5</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="18" t="str">
         <f ca="1">IF(F5&gt;21, "Yes", "No")</f>
@@ -18796,7 +18796,7 @@
       </c>
       <c r="J9" s="18">
         <f ca="1">TODAY()-H9</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K9" s="18" t="str">
         <f ca="1">IF(J9&gt;21, "Yes", "No")</f>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="F6" s="18">
         <f ca="1">TODAY()-D6</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G6" s="18" t="str">
         <f ca="1">IF(F6&lt;=21, "No", "Yes" )</f>
@@ -20014,7 +20014,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -20505,7 +20505,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -20982,7 +20982,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -20996,7 +20996,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -21044,7 +21044,7 @@
       </c>
       <c r="N4" s="18">
         <f ca="1">TODAY()-L4</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O4" s="18" t="str">
         <f ca="1">IF(N4&lt;=21, "No", "Yes" )</f>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -21932,7 +21932,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -22391,7 +22391,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -23799,7 +23799,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -23813,7 +23813,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -23862,7 +23862,7 @@
       </c>
       <c r="N4" s="18">
         <f ca="1">TODAY()-L4</f>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O4" s="18" t="str">
         <f ca="1">IF(N4&lt;=21, "No", "Yes" )</f>
@@ -23876,7 +23876,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -23944,7 +23944,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -23995,7 +23995,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -24040,7 +24040,7 @@
       </c>
       <c r="N7" s="18">
         <f ca="1">TODAY()-L7</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O7" s="18" t="str">
         <f ca="1">IF(N7&lt;=21, "No", "Yes" )</f>
@@ -24054,7 +24054,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -24130,7 +24130,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -24179,7 +24179,7 @@
       </c>
       <c r="N11" s="18">
         <f ca="1">TODAY()-L11</f>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O11" s="18" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -24203,7 +24203,7 @@
       </c>
       <c r="N12" s="18">
         <f ca="1">TODAY()-L12</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O12" s="18" t="str">
         <f ca="1">IF(N12&lt;=21, "No", "Yes" )</f>
@@ -24227,7 +24227,7 @@
       </c>
       <c r="N13" s="18">
         <f ca="1">TODAY()-L13</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O13" s="18" t="str">
         <f ca="1">IF(N13&lt;=21, "No", "Yes" )</f>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="N14">
         <f ca="1">TODAY()-L14</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O14" t="str">
         <f ca="1">IF(N14&lt;=21, "No", "Yes" )</f>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -24910,7 +24910,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -25369,7 +25369,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -25828,7 +25828,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -26287,7 +26287,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -27211,7 +27211,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -27670,7 +27670,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -28129,7 +28129,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -29030,7 +29030,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -29045,7 +29045,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -29134,7 +29134,7 @@
       </c>
       <c r="J5" s="18">
         <f ca="1">TODAY()-H5</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K5" s="18" t="str">
         <f ca="1">IF(J5&lt;=21, "No", "Yes" )</f>
@@ -29205,7 +29205,7 @@
       </c>
       <c r="J7" s="18">
         <f ca="1">TODAY()-H7</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" s="18" t="str">
         <f ca="1">IF(J7&lt;=21, "No", "Yes" )</f>
@@ -29488,7 +29488,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -29948,7 +29948,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -30420,7 +30420,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -30880,7 +30880,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -31340,7 +31340,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -31799,7 +31799,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -32258,7 +32258,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -32717,7 +32717,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&gt;21, "Yes", "No")</f>
@@ -33192,7 +33192,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&gt;21, "Yes", "No")</f>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&gt;21, "Yes", "No")</f>
@@ -33221,7 +33221,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&gt;21, "Yes", "No")</f>
@@ -33292,7 +33292,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&gt;21, "Yes", "No")</f>
@@ -33478,7 +33478,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&gt;21, "Yes", "No")</f>
@@ -33522,7 +33522,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&gt;21, "Yes", "No")</f>
@@ -33777,7 +33777,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -34237,7 +34237,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -34252,7 +34252,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -34288,7 +34288,7 @@
       </c>
       <c r="J4" s="18">
         <f ca="1">TODAY()-H4</f>
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K4" s="18" t="str">
         <f ca="1">IF(J4&lt;=21, "No", "Yes" )</f>
@@ -34303,7 +34303,7 @@
       </c>
       <c r="N4" s="18">
         <f ca="1">TODAY()-L4</f>
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O4" s="18" t="str">
         <f ca="1">IF(N4&lt;=21, "No", "Yes" )</f>
@@ -34340,7 +34340,7 @@
       </c>
       <c r="J5" s="18">
         <f ca="1">TODAY()-H5</f>
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K5" s="18" t="str">
         <f ca="1">IF(J5&lt;=21, "No", "Yes" )</f>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -34392,7 +34392,7 @@
       </c>
       <c r="J6" s="18">
         <f ca="1">TODAY()-H6</f>
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K6" s="18" t="str">
         <f ca="1">IF(J6&lt;=21, "No", "Yes" )</f>
@@ -34433,7 +34433,7 @@
       </c>
       <c r="J7" s="18">
         <f ca="1">TODAY()-H7</f>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K7" s="18" t="str">
         <f ca="1">IF(J7&lt;=21, "No", "Yes" )</f>
@@ -34510,7 +34510,7 @@
       </c>
       <c r="J9" s="18">
         <f ca="1">TODAY()-H9</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K9" s="18" t="str">
         <f ca="1">IF(J9&lt;=21, "No", "Yes" )</f>
@@ -34732,7 +34732,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -35203,7 +35203,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -35673,7 +35673,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&gt;21, "Yes", "No")</f>
@@ -35688,7 +35688,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&gt;21, "Yes", "No")</f>
@@ -35702,7 +35702,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&gt;21, "Yes", "No")</f>
@@ -35717,7 +35717,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&gt;21, "Yes", "No")</f>
@@ -35731,7 +35731,7 @@
       </c>
       <c r="V3" s="11">
         <f ca="1">TODAY()-T3</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W3" s="18" t="str">
         <f ca="1">IF(V3&gt;21, "Yes", "No")</f>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="J4" s="18">
         <f ca="1">TODAY()-H4</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K4" s="18" t="str">
         <f ca="1">IF(J4&gt;21, "Yes", "No")</f>
@@ -35796,7 +35796,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&gt;21, "Yes", "No")</f>
@@ -35855,7 +35855,7 @@
       </c>
       <c r="N5" s="18">
         <f t="shared" ref="N5:N10" ca="1" si="0">TODAY()-L5</f>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O5" s="18" t="str">
         <f t="shared" ref="O5:O10" ca="1" si="1">IF(N5&gt;21, "Yes", "No")</f>
@@ -35870,7 +35870,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&gt;21, "Yes", "No")</f>
@@ -35913,7 +35913,7 @@
       </c>
       <c r="J6" s="18">
         <f ca="1">TODAY()-H6</f>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K6" s="18" t="str">
         <f ca="1">IF(J6&gt;21, "Yes", "No")</f>
@@ -35927,7 +35927,7 @@
       </c>
       <c r="N6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O6" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -35942,7 +35942,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&gt;21, "Yes", "No")</f>
@@ -35993,7 +35993,7 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O7" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -36008,7 +36008,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&gt;21, "Yes", "No")</f>
@@ -36048,7 +36048,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -36092,7 +36092,7 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -36128,7 +36128,7 @@
       </c>
       <c r="N10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O10" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -36356,7 +36356,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -36672,8 +36672,8 @@
     <col min="15" max="15" width="8.88671875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="8.88671875" style="27" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="27"/>
+    <col min="18" max="27" width="8.88671875" style="27" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -36820,7 +36820,7 @@
       </c>
       <c r="F3" s="11">
         <f ca="1">TODAY()-D3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -36830,7 +36830,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -36840,7 +36840,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -36850,7 +36850,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -36860,7 +36860,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18">
         <f ca="1">TODAY()-T3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="W3" s="18" t="str">
         <f ca="1">IF(V3&lt;=21, "No", "Yes" )</f>
@@ -37158,8 +37158,8 @@
     <col min="15" max="15" width="8.88671875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="8.88671875" style="27" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="27"/>
+    <col min="18" max="27" width="8.88671875" style="27" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -37306,7 +37306,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -37316,7 +37316,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -37326,7 +37326,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -37336,7 +37336,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -37346,7 +37346,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18">
         <f ca="1">TODAY()-T3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="W3" s="18" t="str">
         <f ca="1">IF(V3&lt;=21, "No", "Yes" )</f>
@@ -37644,8 +37644,8 @@
     <col min="15" max="15" width="8.88671875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="8.88671875" style="27" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="27"/>
+    <col min="18" max="27" width="8.88671875" style="27" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -37792,7 +37792,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -37802,7 +37802,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -37812,7 +37812,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -37822,7 +37822,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -37832,7 +37832,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18">
         <f ca="1">TODAY()-T3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="W3" s="18" t="str">
         <f ca="1">IF(V3&lt;=21, "No", "Yes" )</f>
@@ -38130,8 +38130,8 @@
     <col min="15" max="15" width="8.88671875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="8.88671875" style="27" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="27"/>
+    <col min="18" max="27" width="8.88671875" style="27" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -38278,7 +38278,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -38288,7 +38288,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -38298,7 +38298,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -38308,7 +38308,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -38318,7 +38318,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18">
         <f ca="1">TODAY()-T3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="W3" s="18" t="str">
         <f ca="1">IF(V3&lt;=21, "No", "Yes" )</f>
@@ -38616,8 +38616,8 @@
     <col min="15" max="15" width="8.88671875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="8.88671875" style="27" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="27"/>
+    <col min="18" max="27" width="8.88671875" style="27" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -38758,7 +38758,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -38768,7 +38768,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -38778,7 +38778,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -38788,7 +38788,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -38798,7 +38798,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18">
         <f ca="1">TODAY()-T3</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="W3" s="18" t="str">
         <f ca="1">IF(V3&lt;=21, "No", "Yes" )</f>
@@ -39223,7 +39223,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -39238,7 +39238,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -39253,7 +39253,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -39350,7 +39350,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -39391,7 +39391,7 @@
       </c>
       <c r="J6" s="18">
         <f ca="1">TODAY()-H6</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" s="18" t="str">
         <f ca="1">IF(J6&lt;=21, "No", "Yes" )</f>
@@ -39406,7 +39406,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -39483,7 +39483,7 @@
       </c>
       <c r="J8" s="18">
         <f ca="1">TODAY()-H8</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K8" s="18" t="str">
         <f ca="1">IF(J8&lt;=21, "No", "Yes" )</f>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="J11" s="18">
         <f ca="1">TODAY()-H11</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K11" s="18" t="str">
         <f ca="1">IF(J11&lt;=21, "No", "Yes" )</f>
@@ -39595,7 +39595,7 @@
       </c>
       <c r="J12" s="18">
         <f ca="1">TODAY()-H12</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K12" s="18" t="str">
         <f ca="1">IF(J12&lt;=21, "No", "Yes" )</f>
@@ -39789,7 +39789,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -39808,7 +39808,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -39823,7 +39823,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -39859,7 +39859,7 @@
       </c>
       <c r="F4" s="18">
         <f ca="1">TODAY()-D4</f>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G4" s="18" t="str">
         <f ca="1">IF(F4&lt;=21, "No", "Yes" )</f>
@@ -39884,7 +39884,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -39937,7 +39937,7 @@
       </c>
       <c r="N5" s="18">
         <f ca="1">TODAY()-L5</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O5" s="18" t="str">
         <f ca="1">IF(N5&lt;=21, "No", "Yes" )</f>
@@ -39997,7 +39997,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -40049,7 +40049,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -40089,7 +40089,7 @@
       </c>
       <c r="N8" s="18">
         <f ca="1">TODAY()-L8</f>
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O8" s="18" t="str">
         <f ca="1">IF(N8&lt;=21, "No", "Yes" )</f>
@@ -40103,7 +40103,7 @@
       </c>
       <c r="R8" s="18">
         <f ca="1">TODAY()-P8</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S8" s="18" t="str">
         <f ca="1">IF(R8&lt;=21, "No", "Yes" )</f>
@@ -40148,7 +40148,7 @@
       </c>
       <c r="R9" s="18">
         <f ca="1">TODAY()-P9</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S9" s="18" t="str">
         <f ca="1">IF(R9&lt;=21, "No", "Yes" )</f>
@@ -40194,7 +40194,7 @@
       </c>
       <c r="N11" s="18">
         <f ca="1">TODAY()-L11</f>
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O11" s="18" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>
@@ -40231,7 +40231,7 @@
       </c>
       <c r="N13" s="18">
         <f ca="1">TODAY()-L13</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O13" s="18" t="str">
         <f ca="1">IF(N13&lt;=21, "No", "Yes" )</f>
@@ -40255,7 +40255,7 @@
       </c>
       <c r="N14" s="18">
         <f ca="1">TODAY()-L14</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O14" s="18" t="str">
         <f ca="1">IF(N14&lt;=21, "No", "Yes" )</f>
@@ -40279,7 +40279,7 @@
       </c>
       <c r="N15" s="18">
         <f ca="1">TODAY()-L15</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O15" s="18" t="str">
         <f ca="1">IF(N15&lt;=21, "No", "Yes" )</f>
@@ -40296,7 +40296,7 @@
       </c>
       <c r="N16">
         <f ca="1">TODAY()-L16</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O16" t="str">
         <f ca="1">IF(N16&lt;=21, "No", "Yes" )</f>
@@ -40482,7 +40482,7 @@
       </c>
       <c r="F3" s="18">
         <f ca="1">TODAY()-D3</f>
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G3" s="18" t="str">
         <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
@@ -40497,7 +40497,7 @@
       </c>
       <c r="J3" s="18">
         <f ca="1">TODAY()-H3</f>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K3" s="18" t="str">
         <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
@@ -40512,7 +40512,7 @@
       </c>
       <c r="N3" s="18">
         <f ca="1">TODAY()-L3</f>
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O3" s="18" t="str">
         <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
@@ -40527,7 +40527,7 @@
       </c>
       <c r="R3" s="18">
         <f ca="1">TODAY()-P3</f>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S3" s="18" t="str">
         <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="R4" s="18">
         <f ca="1">TODAY()-P4</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S4" s="18" t="str">
         <f ca="1">IF(R4&lt;=21, "No", "Yes" )</f>
@@ -40647,7 +40647,7 @@
       </c>
       <c r="R5" s="18">
         <f ca="1">TODAY()-P5</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S5" s="18" t="str">
         <f ca="1">IF(R5&lt;=21, "No", "Yes" )</f>
@@ -40692,7 +40692,7 @@
       </c>
       <c r="N6" s="18">
         <f ca="1">TODAY()-L6</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O6" s="18" t="str">
         <f ca="1">IF(N6&lt;=21, "No", "Yes" )</f>
@@ -40706,7 +40706,7 @@
       </c>
       <c r="R6" s="18">
         <f ca="1">TODAY()-P6</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S6" s="18" t="str">
         <f ca="1">IF(R6&lt;=21, "No", "Yes" )</f>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="R7" s="18">
         <f ca="1">TODAY()-P7</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S7" s="18" t="str">
         <f ca="1">IF(R7&lt;=21, "No", "Yes" )</f>
@@ -40831,7 +40831,7 @@
       </c>
       <c r="N9" s="18">
         <f ca="1">TODAY()-L9</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O9" s="18" t="str">
         <f ca="1">IF(N9&lt;=21, "No", "Yes" )</f>
@@ -40867,7 +40867,7 @@
       </c>
       <c r="N10" s="18">
         <f ca="1">TODAY()-L10</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O10" s="18" t="str">
         <f ca="1">IF(N10&lt;=21, "No", "Yes" )</f>
@@ -40891,7 +40891,7 @@
       </c>
       <c r="N11" s="18">
         <f ca="1">TODAY()-L11</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O11" s="18" t="str">
         <f ca="1">IF(N11&lt;=21, "No", "Yes" )</f>

--- a/Vertikal Tech TC Plant Inventory List.xlsx
+++ b/Vertikal Tech TC Plant Inventory List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e553a057e1a20f55/Documents/GitHub/excel_editor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0DF2E15E3BC3C8C06E2B3FD298D2DFE701A4C53C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C993C908789DD2C80EDD410D9E1E427B25E4035C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{572CB880-AD30-4474-988B-C0B44A1AEACF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,8 @@
     <sheet name="Vapor Fuel" sheetId="67" r:id="rId67"/>
     <sheet name="Lemon Gelato" sheetId="68" r:id="rId68"/>
     <sheet name="Zack" sheetId="69" r:id="rId69"/>
-    <sheet name="Template" sheetId="70" r:id="rId70"/>
+    <sheet name="Kenzie" sheetId="70" r:id="rId70"/>
+    <sheet name="Template" sheetId="71" r:id="rId71"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="136">
   <si>
     <t>Total Explants</t>
   </si>
@@ -504,6 +505,12 @@
   </si>
   <si>
     <t>2/3/2021</t>
+  </si>
+  <si>
+    <t>Kenzie</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -1715,8 +1722,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="18">
-        <f t="shared" ref="H57:H62" si="10">SUM(D57:G57)</f>
+        <f t="shared" ref="H57:H63" si="10">SUM(D57:G57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="11" t="str">
@@ -4984,7 +4991,7 @@
         <v>#N/A</v>
       </c>
       <c r="L57" s="18" t="e">
-        <f t="shared" ref="L57:L62" ca="1" si="11">IF(TODAY() - K57 &gt;= 21, "Yes", "No")</f>
+        <f t="shared" ref="L57:L63" ca="1" si="11">IF(TODAY() - K57 &gt;= 21, "Yes", "No")</f>
         <v>#N/A</v>
       </c>
       <c r="M57" s="18" t="e">
@@ -4992,7 +4999,7 @@
         <v>#N/A</v>
       </c>
       <c r="N57" s="18" t="e">
-        <f t="shared" ref="N57:N62" ca="1" si="12">IF(TODAY() - M57 &gt;= 21, "Yes", "No")</f>
+        <f t="shared" ref="N57:N63" ca="1" si="12">IF(TODAY() - M57 &gt;= 21, "Yes", "No")</f>
         <v>#N/A</v>
       </c>
       <c r="O57" s="18" t="e">
@@ -5000,7 +5007,7 @@
         <v>#N/A</v>
       </c>
       <c r="P57" s="18" t="e">
-        <f t="shared" ref="P57:P62" ca="1" si="13">IF(TODAY() - O57 &gt;= 21, "Yes", "No")</f>
+        <f t="shared" ref="P57:P63" ca="1" si="13">IF(TODAY() - O57 &gt;= 21, "Yes", "No")</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5295,20 +5302,62 @@
       </c>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
+      <c r="C63" s="18" t="str">
+        <f>Kenzie!B1</f>
+        <v>Kenzie</v>
+      </c>
+      <c r="D63" s="18" t="str">
+        <f>Kenzie!B2</f>
+        <v>50</v>
+      </c>
+      <c r="E63" s="18">
+        <f>Kenzie!B5</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="18">
+        <f>Kenzie!B11</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="18">
+        <f>Kenzie!B8</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <f>Kenzie!B3</f>
+        <v>24505</v>
+      </c>
+      <c r="J63" s="18" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="K63" s="18" t="e">
+        <f>Kenzie!B6</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L63" s="18" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M63" s="18" t="e">
+        <f>Kenzie!B12</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N63" s="18" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O63" s="18" t="e">
+        <f>Kenzie!B9</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P63" s="18" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N6:N8">
@@ -34190,7 +34239,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -36775,8 +36824,8 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -37261,8 +37310,8 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -37747,8 +37796,8 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -38233,8 +38282,8 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -38719,8 +38768,8 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -39207,8 +39256,8 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -40229,7 +40278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40250,8 +40301,496 @@
     <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="8.85546875" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="Z1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+    </row>
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>(IFERROR((LOOKUP(2,1/(E$3:E$98&lt;&gt;""),E$3:E$100)),0))</f>
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9">
+        <f>LOOKUP(2,1 / (D$3:D$100 &lt;&gt;""), D$3:D$100)</f>
+        <v>24505</v>
+      </c>
+      <c r="D3" s="11">
+        <v>24505</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="18">
+        <f ca="1">TODAY()-D3</f>
+        <v>20349</v>
+      </c>
+      <c r="G3" s="18" t="str">
+        <f ca="1">IF(F3&lt;=21, "No", "Yes" )</f>
+        <v>Yes</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
+        <f ca="1">TODAY()-H3</f>
+        <v>44854</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f ca="1">IF(J3&lt;=21, "No", "Yes" )</f>
+        <v>Yes</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18">
+        <f ca="1">TODAY()-L3</f>
+        <v>44854</v>
+      </c>
+      <c r="O3" s="18" t="str">
+        <f ca="1">IF(N3&lt;=21, "No", "Yes" )</f>
+        <v>Yes</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18">
+        <f ca="1">TODAY()-P3</f>
+        <v>44854</v>
+      </c>
+      <c r="S3" s="18" t="str">
+        <f ca="1">IF(R3&lt;=21, "No", "Yes" )</f>
+        <v>Yes</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18">
+        <f ca="1">TODAY()-T3</f>
+        <v>44854</v>
+      </c>
+      <c r="W3" s="18" t="str">
+        <f ca="1">IF(V3&lt;=21, "No", "Yes" )</f>
+        <v>Yes</v>
+      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f ca="1">LOOKUP(2,1 / (G$3:G$1048576 &lt;&gt;""), G$3:G$1048576)</f>
+        <v>Yes</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(IFERROR((LOOKUP(2,1/(I$3:I$100&lt;&gt;""),I$3:I$100)),0))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+    </row>
+    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="e">
+        <f>LOOKUP(2,1 / (H$3:H$100 &lt;&gt;""), H$3:H$100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+    </row>
+    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="e">
+        <f>LOOKUP(2,1 / (K$10:K$100 &lt;&gt;""), K$10:K$100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3">
+        <f>(IFERROR((LOOKUP(2,1/(M$3:M$100&lt;&gt;""),M$3:M$100)),0))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+    </row>
+    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="e">
+        <f>LOOKUP(2,1 / (L$3:L$100 &lt;&gt;""), L$3:L$100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+    </row>
+    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f ca="1">LOOKUP(2,1 / (O$3:O$100 &lt;&gt;""), O$3:O$100)</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(IFERROR((LOOKUP(2,1/(Q$3:Q$100&lt;&gt;""),Q$3:Q$100)),0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="e">
+        <f>LOOKUP(2,1 / (P$3:P$100 &lt;&gt;""), P$3:P$100)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f ca="1">LOOKUP(2,1 / (S$3:S$100 &lt;&gt;""), S$3:S$100)</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(IFERROR((LOOKUP(2,1/(U$3:U$100&lt;&gt;""),U$3:U$100)),0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="9" t="e">
+        <f>LOOKUP(2,1 / (T$3:T$9 &lt;&gt;""), T$3:T$9)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+  <dimension ref="A1:AC15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="27" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="8.85546875" style="27" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
